--- a/lci-Salton-Sea.xlsx
+++ b/lci-Salton-Sea.xlsx
@@ -2224,7 +2224,7 @@
         <v>28</v>
       </c>
       <c r="B157">
-        <v>-0.1101245022385994</v>
+        <v>-0.01101245022385994</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
@@ -3203,7 +3203,7 @@
         <v>62</v>
       </c>
       <c r="B246">
-        <v>0.0625</v>
+        <v>0.0125</v>
       </c>
       <c r="C246" t="s">
         <v>32</v>
